--- a/biology/Médecine/Tofersen/Tofersen.xlsx
+++ b/biology/Médecine/Tofersen/Tofersen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tofersen, est un oligonucléide antisens utilisé dans le traitement de la sclérose latérale amyotrophique. Il est vendu sous la marque Qalsody[1].
+Tofersen, est un oligonucléide antisens utilisé dans le traitement de la sclérose latérale amyotrophique. Il est vendu sous la marque Qalsody.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un oligonucléotide antisens qui diminue la production de la superoxyde dismutase[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un oligonucléotide antisens qui diminue la production de la superoxyde dismutase.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour traiter la sclérose latérale amyotrophique[1]. Plus précisément, il est utilisé chez les personnes présentant une mutation du gène superoxyde dismutase 1 , présent dans 2 % des cas[1],[2]. Il est administré par ponction lombaire[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour traiter la sclérose latérale amyotrophique. Plus précisément, il est utilisé chez les personnes présentant une mutation du gène superoxyde dismutase 1 , présent dans 2 % des cas,. Il est administré par ponction lombaire.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent la fatigue, les douleurs articulaires, l’augmentation des globules blancs du LCR et les douleurs musculaires; d'autres effets secondaires peuvent inclure une myélite, une augmentation de la pression intracrânienne et une méningite aseptique[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent la fatigue, les douleurs articulaires, l’augmentation des globules blancs du LCR et les douleurs musculaires; d'autres effets secondaires peuvent inclure une myélite, une augmentation de la pression intracrânienne et une méningite aseptique.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tofersen a été approuvé pour un usage médical aux États-Unis en 2023[1]. En 2023, il coûte environ 158 000 dollar américain par an aux États-Unis[2]. Il a obtenu le statut de médicament orphelin en Europe en 2016[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tofersen a été approuvé pour un usage médical aux États-Unis en 2023. En 2023, il coûte environ 158 000 dollar américain par an aux États-Unis. Il a obtenu le statut de médicament orphelin en Europe en 2016.
 </t>
         </is>
       </c>
